--- a/cplex/data/PLR.xlsx
+++ b/cplex/data/PLR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\UPorto\MEIC\1ºAno\PLR\Arithmetic-Sequence-Puzzles\cplex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508ECB45-5299-4BC3-85C3-94886CE83077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFB327-BB0A-445F-98F9-92D3F08CF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B57DDAC-4CAB-46A2-9D3A-337FB76C15B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>Depth-first</t>
   </si>
@@ -101,36 +101,6 @@
     <t>VARIABLE SELECTION (time/s)</t>
   </si>
   <si>
-    <t>selectSmallest ( eval )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cp.factory.domainSize() </t>
-  </si>
-  <si>
-    <t>cp.factory.domainMin()</t>
-  </si>
-  <si>
-    <t>cp.factory.domainMax()</t>
-  </si>
-  <si>
-    <t>cp.factory.regretOnMin()</t>
-  </si>
-  <si>
-    <t>cp.factory.regretOnMax()</t>
-  </si>
-  <si>
-    <t>cp.factory.successRate()</t>
-  </si>
-  <si>
-    <t>cp.factory.impact()</t>
-  </si>
-  <si>
-    <t>cp.factory.localImpact()</t>
-  </si>
-  <si>
-    <t>cp.factory.impactOfLastBranch()</t>
-  </si>
-  <si>
     <t>0.07s</t>
   </si>
   <si>
@@ -146,9 +116,6 @@
     <t>0.36s</t>
   </si>
   <si>
-    <t>selectLargest (eval)</t>
-  </si>
-  <si>
     <t>0.34s</t>
   </si>
   <si>
@@ -164,21 +131,6 @@
     <t>VALUE SELECTION (time/s)</t>
   </si>
   <si>
-    <t>selectSmallest(eval)</t>
-  </si>
-  <si>
-    <t>cp.factory.value()</t>
-  </si>
-  <si>
-    <t>cp.factory.valueImpact()</t>
-  </si>
-  <si>
-    <t>cp.factory.valueSuccessRate()</t>
-  </si>
-  <si>
-    <t>selectLargest(eval)</t>
-  </si>
-  <si>
     <t>0.37s</t>
   </si>
   <si>
@@ -210,6 +162,51 @@
   </si>
   <si>
     <t>0.84s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectSmallest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">domainSize() </t>
+  </si>
+  <si>
+    <t>domainMin()</t>
+  </si>
+  <si>
+    <t>domainMax()</t>
+  </si>
+  <si>
+    <t>regretOnMin()</t>
+  </si>
+  <si>
+    <t>regretOnMax()</t>
+  </si>
+  <si>
+    <t>successRate()</t>
+  </si>
+  <si>
+    <t>impact()</t>
+  </si>
+  <si>
+    <t>localImpact()</t>
+  </si>
+  <si>
+    <t>impactOfLast Branch()</t>
+  </si>
+  <si>
+    <t>selectLargest</t>
+  </si>
+  <si>
+    <t>selectSmallest</t>
+  </si>
+  <si>
+    <t>value()</t>
+  </si>
+  <si>
+    <t>valueImpact()</t>
+  </si>
+  <si>
+    <t>valueSuccess Rate()</t>
   </si>
 </sst>
 </file>
@@ -242,15 +239,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -273,41 +312,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="21"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="21"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="22"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="22"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="20"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="20"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="20"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="20"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,49 +875,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9FEE61-5911-43AC-AA68-68D3589900C2}">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
@@ -673,13 +928,13 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
@@ -687,13 +942,13 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
@@ -701,399 +956,415 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="13" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="K11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
+      <c r="F17" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
+      <c r="F31" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1277,20 +1548,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1313,14 +1584,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{603AC85E-7049-4179-BEDC-3C0A45022EC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="79788a03-4d00-4199-b0e8-365c4f85c308"/>
@@ -1335,4 +1598,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cplex/data/PLR.xlsx
+++ b/cplex/data/PLR.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\UPorto\MEIC\1ºAno\PLR\Arithmetic-Sequence-Puzzles\cplex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFB327-BB0A-445F-98F9-92D3F08CF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B56BAF-51BA-46FA-8F22-26A705BEBEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B57DDAC-4CAB-46A2-9D3A-337FB76C15B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4B57DDAC-4CAB-46A2-9D3A-337FB76C15B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="66">
   <si>
     <t>Depth-first</t>
   </si>
@@ -208,12 +210,39 @@
   <si>
     <t>valueSuccess Rate()</t>
   </si>
+  <si>
+    <t>selectRandom</t>
+  </si>
+  <si>
+    <t>SEARCH TYPE: Depth-first</t>
+  </si>
+  <si>
+    <t>VARIABLE SELECTION</t>
+  </si>
+  <si>
+    <t>VALUE SELECTION</t>
+  </si>
+  <si>
+    <t>SEARCH TYPE: Restart</t>
+  </si>
+  <si>
+    <t>SEARCH TYPE: Multi-point</t>
+  </si>
+  <si>
+    <t>SEARCH TYPE: Iterative-diving</t>
+  </si>
+  <si>
+    <t>MATRIX NxN</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +267,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +333,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -445,11 +556,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +802,92 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9FEE61-5911-43AC-AA68-68D3589900C2}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,6 +1693,5582 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6932C266-0376-4C4A-A357-82A01AD124F9}">
+  <dimension ref="C1:AN136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="8" width="12.77734375" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="19" max="24" width="12.77734375" customWidth="1"/>
+    <col min="27" max="32" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:40" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="K1" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="S1" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="AA1" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+    </row>
+    <row r="2" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47"/>
+    </row>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="C3" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="48"/>
+      <c r="U3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="49"/>
+      <c r="W3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="K4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="S4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="AA4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AK4" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="50"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AJ5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="6" spans="3:40" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="50"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="3:40" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="50"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="3:40" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="50"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="3:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C9" s="50"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="3:40" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="50"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="58"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="58"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="3:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="50"/>
+      <c r="D11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="3:40" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="50"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="3:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C13" s="50"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="3:40" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="3:40" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="50"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="3:40" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C16" s="50"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="50"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="58"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="58"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="50"/>
+      <c r="D18" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="50"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="50"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="50"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="3:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="50"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="50"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="3:32" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="50"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="58"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V24" s="58"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="50"/>
+      <c r="D25" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="50"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C27" s="50"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="50"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="50"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+    </row>
+    <row r="30" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C30" s="50"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+    </row>
+    <row r="31" spans="3:32" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="50"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" s="58"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V31" s="58"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+    </row>
+    <row r="32" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="50"/>
+      <c r="D32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="U32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+    </row>
+    <row r="33" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="50"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+    </row>
+    <row r="34" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C34" s="50"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+    </row>
+    <row r="35" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="50"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="36" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="50"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+    </row>
+    <row r="37" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C37" s="50"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+    </row>
+    <row r="38" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="50"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="58"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V38" s="58"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+    </row>
+    <row r="39" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="50"/>
+      <c r="D39" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U39" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC39" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="50"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C41" s="50"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+    </row>
+    <row r="42" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="50"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="56"/>
+      <c r="AC42" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+    </row>
+    <row r="43" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="50"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+    </row>
+    <row r="44" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C44" s="50"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+    </row>
+    <row r="45" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="50"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="58"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V45" s="58"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+    </row>
+    <row r="46" spans="3:32" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="50"/>
+      <c r="D46" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="U46" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="V46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC46" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+    </row>
+    <row r="47" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="50"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="63"/>
+      <c r="AD47" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+    </row>
+    <row r="48" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C48" s="50"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="50"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="50"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="57"/>
+      <c r="AD50" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C51" s="50"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="50"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="58"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="58"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V52" s="58"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="50"/>
+      <c r="D53" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="U53" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="50"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C55" s="50"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="57"/>
+      <c r="AD55" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="50"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="50"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C58" s="50"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+    </row>
+    <row r="59" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="50"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="58"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N59" s="58"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V59" s="58"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="AA59" s="50"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+    </row>
+    <row r="60" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="50"/>
+      <c r="D60" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="M60" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="U60" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V60" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC60" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD60" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+    </row>
+    <row r="61" spans="3:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="50"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="57"/>
+      <c r="AD61" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+    </row>
+    <row r="62" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C62" s="50"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="57"/>
+      <c r="AD62" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+    </row>
+    <row r="63" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="50"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="50"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+    </row>
+    <row r="65" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C65" s="50"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+    </row>
+    <row r="66" spans="3:32" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="50"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="58"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N66" s="58"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V66" s="58"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD66" s="58"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+    </row>
+    <row r="67" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="K67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="S67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="T67" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="U67" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="AA67" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB67" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC67" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD67" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="51"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="AA68" s="51"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="57"/>
+      <c r="AD68" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+    </row>
+    <row r="69" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C69" s="51"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="57"/>
+      <c r="V69" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="57"/>
+      <c r="AD69" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+    </row>
+    <row r="70" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="51"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="AA70" s="51"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD70" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+    </row>
+    <row r="71" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="51"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="AA71" s="51"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="57"/>
+      <c r="AD71" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+    </row>
+    <row r="72" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C72" s="51"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="57"/>
+      <c r="V72" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="56"/>
+      <c r="AC72" s="57"/>
+      <c r="AD72" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+    </row>
+    <row r="73" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="51"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="58"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" s="58"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V73" s="58"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="56"/>
+      <c r="AC73" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD73" s="58"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+    </row>
+    <row r="74" spans="3:32" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="51"/>
+      <c r="D74" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N74" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="U74" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V74" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC74" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD74" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+    </row>
+    <row r="75" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="51"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="55"/>
+      <c r="AC75" s="57"/>
+      <c r="AD75" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+    </row>
+    <row r="76" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C76" s="51"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="57"/>
+      <c r="V76" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="AA76" s="51"/>
+      <c r="AB76" s="55"/>
+      <c r="AC76" s="57"/>
+      <c r="AD76" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+    </row>
+    <row r="77" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="51"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V77" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="55"/>
+      <c r="AC77" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD77" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+    </row>
+    <row r="78" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="51"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="AA78" s="51"/>
+      <c r="AB78" s="55"/>
+      <c r="AC78" s="57"/>
+      <c r="AD78" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+    </row>
+    <row r="79" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C79" s="51"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="55"/>
+      <c r="AC79" s="57"/>
+      <c r="AD79" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+    </row>
+    <row r="80" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="51"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="58"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" s="58"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V80" s="58"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="AA80" s="51"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD80" s="58"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+    </row>
+    <row r="81" spans="3:32" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="51"/>
+      <c r="D81" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N81" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="U81" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V81" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC81" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD81" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+    </row>
+    <row r="82" spans="3:32" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="51"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="54"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="AA82" s="51"/>
+      <c r="AB82" s="54"/>
+      <c r="AC82" s="57"/>
+      <c r="AD82" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C83" s="51"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="54"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="54"/>
+      <c r="AC83" s="57"/>
+      <c r="AD83" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+    </row>
+    <row r="84" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="51"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="54"/>
+      <c r="U84" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="AA84" s="51"/>
+      <c r="AB84" s="54"/>
+      <c r="AC84" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+    </row>
+    <row r="85" spans="3:32" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="51"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="54"/>
+      <c r="U85" s="57"/>
+      <c r="V85" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="AA85" s="51"/>
+      <c r="AB85" s="54"/>
+      <c r="AC85" s="57"/>
+      <c r="AD85" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+    </row>
+    <row r="86" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C86" s="51"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="54"/>
+      <c r="U86" s="57"/>
+      <c r="V86" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="AA86" s="51"/>
+      <c r="AB86" s="54"/>
+      <c r="AC86" s="57"/>
+      <c r="AD86" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+    </row>
+    <row r="87" spans="3:32" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="51"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="58"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" s="58"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="54"/>
+      <c r="U87" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V87" s="58"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="AA87" s="51"/>
+      <c r="AB87" s="54"/>
+      <c r="AC87" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD87" s="58"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+    </row>
+    <row r="88" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="51"/>
+      <c r="D88" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M88" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N88" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="U88" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V88" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="AA88" s="51"/>
+      <c r="AB88" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC88" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD88" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+    </row>
+    <row r="89" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="51"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="53"/>
+      <c r="U89" s="57"/>
+      <c r="V89" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="AA89" s="51"/>
+      <c r="AB89" s="53"/>
+      <c r="AC89" s="57"/>
+      <c r="AD89" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+    </row>
+    <row r="90" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C90" s="51"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="53"/>
+      <c r="M90" s="57"/>
+      <c r="N90" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="53"/>
+      <c r="U90" s="57"/>
+      <c r="V90" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="AA90" s="51"/>
+      <c r="AB90" s="53"/>
+      <c r="AC90" s="57"/>
+      <c r="AD90" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="51"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="53"/>
+      <c r="M91" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="53"/>
+      <c r="U91" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="AA91" s="51"/>
+      <c r="AB91" s="53"/>
+      <c r="AC91" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+    </row>
+    <row r="92" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="51"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="53"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="53"/>
+      <c r="U92" s="57"/>
+      <c r="V92" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="AA92" s="51"/>
+      <c r="AB92" s="53"/>
+      <c r="AC92" s="57"/>
+      <c r="AD92" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+    </row>
+    <row r="93" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C93" s="51"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="53"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="AA93" s="51"/>
+      <c r="AB93" s="53"/>
+      <c r="AC93" s="57"/>
+      <c r="AD93" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+    </row>
+    <row r="94" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="51"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="58"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N94" s="58"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="53"/>
+      <c r="U94" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V94" s="58"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="AA94" s="51"/>
+      <c r="AB94" s="53"/>
+      <c r="AC94" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD94" s="58"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+    </row>
+    <row r="95" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="51"/>
+      <c r="D95" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M95" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N95" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="U95" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V95" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="AA95" s="51"/>
+      <c r="AB95" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC95" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD95" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="51"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="AA96" s="51"/>
+      <c r="AB96" s="52"/>
+      <c r="AC96" s="57"/>
+      <c r="AD96" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+    </row>
+    <row r="97" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C97" s="51"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="57"/>
+      <c r="N97" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="S97" s="51"/>
+      <c r="T97" s="52"/>
+      <c r="U97" s="57"/>
+      <c r="V97" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="AA97" s="51"/>
+      <c r="AB97" s="52"/>
+      <c r="AC97" s="57"/>
+      <c r="AD97" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+    </row>
+    <row r="98" spans="3:32" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="51"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V98" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="AA98" s="51"/>
+      <c r="AB98" s="52"/>
+      <c r="AC98" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD98" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
+    </row>
+    <row r="99" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="52"/>
+      <c r="U99" s="57"/>
+      <c r="V99" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="AA99" s="51"/>
+      <c r="AB99" s="52"/>
+      <c r="AC99" s="57"/>
+      <c r="AD99" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="3"/>
+    </row>
+    <row r="100" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="52"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="AA100" s="51"/>
+      <c r="AB100" s="52"/>
+      <c r="AC100" s="57"/>
+      <c r="AD100" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+    </row>
+    <row r="101" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="51"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="58"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N101" s="58"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="52"/>
+      <c r="U101" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V101" s="58"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="AA101" s="51"/>
+      <c r="AB101" s="52"/>
+      <c r="AC101" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD101" s="58"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="3"/>
+    </row>
+    <row r="102" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="51"/>
+      <c r="D102" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M102" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N102" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U102" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V102" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="AA102" s="51"/>
+      <c r="AB102" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC102" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD102" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE102" s="3"/>
+      <c r="AF102" s="3"/>
+    </row>
+    <row r="103" spans="3:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="51"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="57"/>
+      <c r="N103" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="56"/>
+      <c r="U103" s="57"/>
+      <c r="V103" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="56"/>
+      <c r="AC103" s="57"/>
+      <c r="AD103" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3"/>
+    </row>
+    <row r="104" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C104" s="51"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="57"/>
+      <c r="N104" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="56"/>
+      <c r="U104" s="57"/>
+      <c r="V104" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="AA104" s="51"/>
+      <c r="AB104" s="56"/>
+      <c r="AC104" s="57"/>
+      <c r="AD104" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="3"/>
+    </row>
+    <row r="105" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="51"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="56"/>
+      <c r="U105" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V105" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="AA105" s="51"/>
+      <c r="AB105" s="56"/>
+      <c r="AC105" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD105" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="3"/>
+    </row>
+    <row r="106" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="51"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="57"/>
+      <c r="N106" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="56"/>
+      <c r="U106" s="57"/>
+      <c r="V106" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="AA106" s="51"/>
+      <c r="AB106" s="56"/>
+      <c r="AC106" s="57"/>
+      <c r="AD106" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="3"/>
+    </row>
+    <row r="107" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C107" s="51"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="56"/>
+      <c r="U107" s="57"/>
+      <c r="V107" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="AA107" s="51"/>
+      <c r="AB107" s="56"/>
+      <c r="AC107" s="57"/>
+      <c r="AD107" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE107" s="3"/>
+      <c r="AF107" s="3"/>
+    </row>
+    <row r="108" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="51"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="58"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N108" s="58"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="56"/>
+      <c r="U108" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V108" s="58"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="AA108" s="51"/>
+      <c r="AB108" s="56"/>
+      <c r="AC108" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD108" s="58"/>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3"/>
+    </row>
+    <row r="109" spans="3:32" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="51"/>
+      <c r="D109" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M109" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N109" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="U109" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V109" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="AA109" s="51"/>
+      <c r="AB109" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC109" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD109" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3"/>
+    </row>
+    <row r="110" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="51"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="55"/>
+      <c r="M110" s="57"/>
+      <c r="N110" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="55"/>
+      <c r="U110" s="57"/>
+      <c r="V110" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="AA110" s="51"/>
+      <c r="AB110" s="55"/>
+      <c r="AC110" s="57"/>
+      <c r="AD110" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE110" s="3"/>
+      <c r="AF110" s="3"/>
+    </row>
+    <row r="111" spans="3:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="51"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="57"/>
+      <c r="N111" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="55"/>
+      <c r="U111" s="57"/>
+      <c r="V111" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="AA111" s="51"/>
+      <c r="AB111" s="55"/>
+      <c r="AC111" s="57"/>
+      <c r="AD111" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE111" s="3"/>
+      <c r="AF111" s="3"/>
+    </row>
+    <row r="112" spans="3:32" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="51"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="55"/>
+      <c r="M112" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="55"/>
+      <c r="U112" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V112" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="AA112" s="51"/>
+      <c r="AB112" s="55"/>
+      <c r="AC112" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD112" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE112" s="3"/>
+      <c r="AF112" s="3"/>
+    </row>
+    <row r="113" spans="3:32" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="51"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="57"/>
+      <c r="N113" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="55"/>
+      <c r="U113" s="57"/>
+      <c r="V113" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="AA113" s="51"/>
+      <c r="AB113" s="55"/>
+      <c r="AC113" s="57"/>
+      <c r="AD113" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+    </row>
+    <row r="114" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C114" s="51"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="S114" s="51"/>
+      <c r="T114" s="55"/>
+      <c r="U114" s="57"/>
+      <c r="V114" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="AA114" s="51"/>
+      <c r="AB114" s="55"/>
+      <c r="AC114" s="57"/>
+      <c r="AD114" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+    </row>
+    <row r="115" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="51"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115" s="58"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="55"/>
+      <c r="M115" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N115" s="58"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="55"/>
+      <c r="U115" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V115" s="58"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="AA115" s="51"/>
+      <c r="AB115" s="55"/>
+      <c r="AC115" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD115" s="58"/>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="3"/>
+    </row>
+    <row r="116" spans="3:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="51"/>
+      <c r="D116" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="M116" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N116" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="U116" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V116" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="AA116" s="51"/>
+      <c r="AB116" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC116" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD116" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="3"/>
+    </row>
+    <row r="117" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="51"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="57"/>
+      <c r="N117" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="S117" s="51"/>
+      <c r="T117" s="54"/>
+      <c r="U117" s="57"/>
+      <c r="V117" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="AA117" s="51"/>
+      <c r="AB117" s="54"/>
+      <c r="AC117" s="57"/>
+      <c r="AD117" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+    </row>
+    <row r="118" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C118" s="51"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="S118" s="51"/>
+      <c r="T118" s="54"/>
+      <c r="U118" s="57"/>
+      <c r="V118" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="AA118" s="51"/>
+      <c r="AB118" s="54"/>
+      <c r="AC118" s="57"/>
+      <c r="AD118" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE118" s="3"/>
+      <c r="AF118" s="3"/>
+    </row>
+    <row r="119" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="51"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="S119" s="51"/>
+      <c r="T119" s="54"/>
+      <c r="U119" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V119" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="AA119" s="51"/>
+      <c r="AB119" s="54"/>
+      <c r="AC119" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD119" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE119" s="3"/>
+      <c r="AF119" s="3"/>
+    </row>
+    <row r="120" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="51"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="54"/>
+      <c r="M120" s="57"/>
+      <c r="N120" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="S120" s="51"/>
+      <c r="T120" s="54"/>
+      <c r="U120" s="57"/>
+      <c r="V120" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="AA120" s="51"/>
+      <c r="AB120" s="54"/>
+      <c r="AC120" s="57"/>
+      <c r="AD120" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="3"/>
+    </row>
+    <row r="121" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C121" s="51"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="57"/>
+      <c r="N121" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="S121" s="51"/>
+      <c r="T121" s="54"/>
+      <c r="U121" s="57"/>
+      <c r="V121" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="AA121" s="51"/>
+      <c r="AB121" s="54"/>
+      <c r="AC121" s="57"/>
+      <c r="AD121" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+    </row>
+    <row r="122" spans="3:32" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="51"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="58"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N122" s="58"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="S122" s="51"/>
+      <c r="T122" s="54"/>
+      <c r="U122" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V122" s="58"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="AA122" s="51"/>
+      <c r="AB122" s="54"/>
+      <c r="AC122" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD122" s="58"/>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="3"/>
+    </row>
+    <row r="123" spans="3:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="51"/>
+      <c r="D123" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="M123" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N123" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="S123" s="51"/>
+      <c r="T123" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="U123" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V123" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="AA123" s="51"/>
+      <c r="AB123" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC123" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD123" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE123" s="3"/>
+      <c r="AF123" s="3"/>
+    </row>
+    <row r="124" spans="3:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="51"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="K124" s="51"/>
+      <c r="L124" s="53"/>
+      <c r="M124" s="57"/>
+      <c r="N124" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="S124" s="51"/>
+      <c r="T124" s="53"/>
+      <c r="U124" s="57"/>
+      <c r="V124" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="AA124" s="51"/>
+      <c r="AB124" s="53"/>
+      <c r="AC124" s="57"/>
+      <c r="AD124" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE124" s="3"/>
+      <c r="AF124" s="3"/>
+    </row>
+    <row r="125" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C125" s="51"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="53"/>
+      <c r="M125" s="57"/>
+      <c r="N125" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="S125" s="51"/>
+      <c r="T125" s="53"/>
+      <c r="U125" s="57"/>
+      <c r="V125" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="AA125" s="51"/>
+      <c r="AB125" s="53"/>
+      <c r="AC125" s="57"/>
+      <c r="AD125" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE125" s="3"/>
+      <c r="AF125" s="3"/>
+    </row>
+    <row r="126" spans="3:32" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="51"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="53"/>
+      <c r="M126" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="S126" s="51"/>
+      <c r="T126" s="53"/>
+      <c r="U126" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V126" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="AA126" s="51"/>
+      <c r="AB126" s="53"/>
+      <c r="AC126" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD126" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="3"/>
+    </row>
+    <row r="127" spans="3:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="51"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="K127" s="51"/>
+      <c r="L127" s="53"/>
+      <c r="M127" s="57"/>
+      <c r="N127" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="S127" s="51"/>
+      <c r="T127" s="53"/>
+      <c r="U127" s="57"/>
+      <c r="V127" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="AA127" s="51"/>
+      <c r="AB127" s="53"/>
+      <c r="AC127" s="57"/>
+      <c r="AD127" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE127" s="3"/>
+      <c r="AF127" s="3"/>
+    </row>
+    <row r="128" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C128" s="51"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="K128" s="51"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="57"/>
+      <c r="N128" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="S128" s="51"/>
+      <c r="T128" s="53"/>
+      <c r="U128" s="57"/>
+      <c r="V128" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="AA128" s="51"/>
+      <c r="AB128" s="53"/>
+      <c r="AC128" s="57"/>
+      <c r="AD128" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE128" s="3"/>
+      <c r="AF128" s="3"/>
+    </row>
+    <row r="129" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="51"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="58"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="53"/>
+      <c r="M129" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N129" s="58"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="S129" s="51"/>
+      <c r="T129" s="53"/>
+      <c r="U129" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V129" s="58"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="AA129" s="51"/>
+      <c r="AB129" s="53"/>
+      <c r="AC129" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD129" s="58"/>
+      <c r="AE129" s="3"/>
+      <c r="AF129" s="3"/>
+    </row>
+    <row r="130" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="51"/>
+      <c r="E130" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="K130" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="L130" s="51"/>
+      <c r="M130" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N130" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="S130" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T130" s="51"/>
+      <c r="U130" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="V130" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="AA130" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB130" s="51"/>
+      <c r="AC130" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD130" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE130" s="3"/>
+      <c r="AF130" s="3"/>
+    </row>
+    <row r="131" spans="3:32" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="K131" s="51"/>
+      <c r="L131" s="51"/>
+      <c r="M131" s="57"/>
+      <c r="N131" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="S131" s="51"/>
+      <c r="T131" s="51"/>
+      <c r="U131" s="57"/>
+      <c r="V131" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="AA131" s="51"/>
+      <c r="AB131" s="51"/>
+      <c r="AC131" s="57"/>
+      <c r="AD131" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE131" s="3"/>
+      <c r="AF131" s="3"/>
+    </row>
+    <row r="132" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="K132" s="51"/>
+      <c r="L132" s="51"/>
+      <c r="M132" s="57"/>
+      <c r="N132" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="S132" s="51"/>
+      <c r="T132" s="51"/>
+      <c r="U132" s="57"/>
+      <c r="V132" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="AA132" s="51"/>
+      <c r="AB132" s="51"/>
+      <c r="AC132" s="57"/>
+      <c r="AD132" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE132" s="3"/>
+      <c r="AF132" s="3"/>
+    </row>
+    <row r="133" spans="3:32" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="K133" s="51"/>
+      <c r="L133" s="51"/>
+      <c r="M133" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="S133" s="51"/>
+      <c r="T133" s="51"/>
+      <c r="U133" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V133" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="AA133" s="51"/>
+      <c r="AB133" s="51"/>
+      <c r="AC133" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD133" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE133" s="3"/>
+      <c r="AF133" s="3"/>
+    </row>
+    <row r="134" spans="3:32" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="K134" s="51"/>
+      <c r="L134" s="51"/>
+      <c r="M134" s="57"/>
+      <c r="N134" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="S134" s="51"/>
+      <c r="T134" s="51"/>
+      <c r="U134" s="57"/>
+      <c r="V134" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="AA134" s="51"/>
+      <c r="AB134" s="51"/>
+      <c r="AC134" s="57"/>
+      <c r="AD134" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE134" s="3"/>
+      <c r="AF134" s="3"/>
+    </row>
+    <row r="135" spans="3:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="K135" s="51"/>
+      <c r="L135" s="51"/>
+      <c r="M135" s="57"/>
+      <c r="N135" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="S135" s="51"/>
+      <c r="T135" s="51"/>
+      <c r="U135" s="57"/>
+      <c r="V135" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="AA135" s="51"/>
+      <c r="AB135" s="51"/>
+      <c r="AC135" s="57"/>
+      <c r="AD135" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE135" s="3"/>
+      <c r="AF135" s="3"/>
+    </row>
+    <row r="136" spans="3:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="58"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="K136" s="51"/>
+      <c r="L136" s="51"/>
+      <c r="M136" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N136" s="58"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="S136" s="51"/>
+      <c r="T136" s="51"/>
+      <c r="U136" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V136" s="58"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="AA136" s="51"/>
+      <c r="AB136" s="51"/>
+      <c r="AC136" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD136" s="58"/>
+      <c r="AE136" s="3"/>
+      <c r="AF136" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="324">
+    <mergeCell ref="AB123:AB129"/>
+    <mergeCell ref="AC123:AC125"/>
+    <mergeCell ref="AC126:AC128"/>
+    <mergeCell ref="AC129:AD129"/>
+    <mergeCell ref="AA130:AB136"/>
+    <mergeCell ref="AC130:AC132"/>
+    <mergeCell ref="AC133:AC135"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AB109:AB115"/>
+    <mergeCell ref="AC109:AC111"/>
+    <mergeCell ref="AC112:AC114"/>
+    <mergeCell ref="AC115:AD115"/>
+    <mergeCell ref="AB116:AB122"/>
+    <mergeCell ref="AC116:AC118"/>
+    <mergeCell ref="AC119:AC121"/>
+    <mergeCell ref="AC122:AD122"/>
+    <mergeCell ref="AB95:AB101"/>
+    <mergeCell ref="AC95:AC97"/>
+    <mergeCell ref="AC98:AC100"/>
+    <mergeCell ref="AC101:AD101"/>
+    <mergeCell ref="AB102:AB108"/>
+    <mergeCell ref="AC102:AC104"/>
+    <mergeCell ref="AC105:AC107"/>
+    <mergeCell ref="AC108:AD108"/>
+    <mergeCell ref="AC81:AC83"/>
+    <mergeCell ref="AC84:AC86"/>
+    <mergeCell ref="AC87:AD87"/>
+    <mergeCell ref="AB88:AB94"/>
+    <mergeCell ref="AC88:AC90"/>
+    <mergeCell ref="AC91:AC93"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AA67:AA129"/>
+    <mergeCell ref="AB67:AB73"/>
+    <mergeCell ref="AC67:AC69"/>
+    <mergeCell ref="AC70:AC72"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AB74:AB80"/>
+    <mergeCell ref="AC74:AC76"/>
+    <mergeCell ref="AC77:AC79"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AB81:AB87"/>
+    <mergeCell ref="AB53:AB59"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="AC56:AC58"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AB60:AB66"/>
+    <mergeCell ref="AC60:AC62"/>
+    <mergeCell ref="AC63:AC65"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AB39:AB45"/>
+    <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="AC42:AC44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AB46:AB52"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AB25:AB31"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AB32:AB38"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AB18:AB24"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AC21:AC23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA4:AA66"/>
+    <mergeCell ref="AB4:AB10"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AB11:AB17"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="T123:T129"/>
+    <mergeCell ref="U123:U125"/>
+    <mergeCell ref="U126:U128"/>
+    <mergeCell ref="U129:V129"/>
+    <mergeCell ref="S130:T136"/>
+    <mergeCell ref="U130:U132"/>
+    <mergeCell ref="U133:U135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="T109:T115"/>
+    <mergeCell ref="U109:U111"/>
+    <mergeCell ref="U112:U114"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="T116:T122"/>
+    <mergeCell ref="U116:U118"/>
+    <mergeCell ref="U119:U121"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="T95:T101"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="T102:T108"/>
+    <mergeCell ref="U102:U104"/>
+    <mergeCell ref="U105:U107"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="U81:U83"/>
+    <mergeCell ref="U84:U86"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="T88:T94"/>
+    <mergeCell ref="U88:U90"/>
+    <mergeCell ref="U91:U93"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="S67:S129"/>
+    <mergeCell ref="T67:T73"/>
+    <mergeCell ref="U67:U69"/>
+    <mergeCell ref="U70:U72"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="T74:T80"/>
+    <mergeCell ref="U74:U76"/>
+    <mergeCell ref="U77:U79"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="T81:T87"/>
+    <mergeCell ref="T53:T59"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="U56:U58"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="T60:T66"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="T39:T45"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="T46:T52"/>
+    <mergeCell ref="U46:U48"/>
+    <mergeCell ref="U49:U51"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="T25:T31"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="U28:U30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="T32:T38"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="T18:T24"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S4:S66"/>
+    <mergeCell ref="T4:T10"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="T11:T17"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="L123:L129"/>
+    <mergeCell ref="M123:M125"/>
+    <mergeCell ref="M126:M128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="K130:L136"/>
+    <mergeCell ref="M130:M132"/>
+    <mergeCell ref="M133:M135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="L109:L115"/>
+    <mergeCell ref="M109:M111"/>
+    <mergeCell ref="M112:M114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="L116:L122"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="M119:M121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="L95:L101"/>
+    <mergeCell ref="M95:M97"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="L102:L108"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="L88:L94"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="M91:M93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="K67:K129"/>
+    <mergeCell ref="L67:L73"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="L74:L80"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="L81:L87"/>
+    <mergeCell ref="L53:L59"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="L60:L66"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="L39:L45"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="L46:L52"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="L25:L31"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="L18:L24"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K4:K66"/>
+    <mergeCell ref="L4:L10"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="L11:L17"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D81:D87"/>
+    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="D95:D101"/>
+    <mergeCell ref="D102:D108"/>
+    <mergeCell ref="D109:D115"/>
+    <mergeCell ref="D116:D122"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="D74:D80"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:C66"/>
+    <mergeCell ref="C67:C129"/>
+    <mergeCell ref="C130:D136"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D32:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94BDE9-66A2-4B80-9EDC-54689A5F7BD9}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1548,20 +7452,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="79788a03-4d00-4199-b0e8-365c4f85c308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1584,6 +7488,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{603AC85E-7049-4179-BEDC-3C0A45022EC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="79788a03-4d00-4199-b0e8-365c4f85c308"/>
@@ -1598,12 +7510,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF47662-8880-414B-8A8B-33CB7FEC8684}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>